--- a/InternProject/example.xlsx
+++ b/InternProject/example.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\InternProject\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>HOME</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,7 +65,365 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>581025</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Button 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Up</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>581025</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1027" name="Button 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1027"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                </a:rPr>
+                <a:t>HOme</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>590550</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1028" name="Button 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Right</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Button 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Left</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>581025</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1030" name="Button 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1030"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                </a:rPr>
+                <a:t>down</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -98,7 +469,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -130,9 +501,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -164,6 +536,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -339,13 +712,146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="E3:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="5" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1025" r:id="rId4" name="Button 1">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!Higher">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>171450</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>581025</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1027" r:id="rId5" name="Button 3">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!Higher">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>581025</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1028" r:id="rId6" name="Button 4">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!Higher">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1029" r:id="rId7" name="Button 5">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!Higher">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>171450</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1030" r:id="rId8" name="Button 6">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!Higher">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>85725</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>581025</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>104775</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>